--- a/docs/rest API接口说明.xlsx
+++ b/docs/rest API接口说明.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
   <si>
     <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,15 +210,46 @@
     <t>http://112.74.164.166:3000/punch/{userid}</t>
   </si>
   <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://112.74.164.166:3000/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://112.74.164.166:3000/logout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回user_password表中pid为{userid}的一行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://112.74.164.166:3000/userid/pswd/{userid}</t>
+    <t>注意：未登录情况下访问这些接口，返回码均为{code: '-200', msg: '未登录！'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录信息(JSON)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+     "pid": "3051077",
+     "password": "qwer123"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://112.74.164.166:3000/punch/user</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -226,7 +257,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +279,22 @@
       <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -282,16 +329,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thick">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thick">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thick">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -306,7 +353,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -335,7 +382,22 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -632,22 +694,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="80.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>34</v>
       </c>
@@ -660,180 +723,194 @@
       <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>23</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>21</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6">
+      <c r="C6" s="5"/>
+      <c r="D6" s="6">
         <v>404</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6">
+      <c r="C8" s="5"/>
+      <c r="D8" s="6">
         <v>404</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6">
+      <c r="C10" s="5"/>
+      <c r="D10" s="6">
         <v>404</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="6">
-        <v>404</v>
+      <c r="D11" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>24</v>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6">
+        <v>404</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>6</v>
@@ -842,32 +919,34 @@
         <v>27</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>22</v>
+      </c>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>25</v>
+      </c>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>6</v>
@@ -879,44 +958,49 @@
         <v>23</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="7" t="s">
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>2</v>
@@ -926,12 +1010,13 @@
         <v>4</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>2</v>
@@ -941,48 +1026,72 @@
         <v>4</v>
       </c>
       <c r="E19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="3"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F4:F20"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E3:F3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" display="http://localhost:3000/userid/{userid}"/>
-    <hyperlink ref="A5" r:id="rId2" display="http://localhost:3000/userid/{userid}"/>
-    <hyperlink ref="A7" r:id="rId3" display="http://localhost:3000/leave"/>
-    <hyperlink ref="A8" r:id="rId4" display="http://localhost:3000/out"/>
-    <hyperlink ref="A9" r:id="rId5" display="http://localhost:3000/out"/>
-    <hyperlink ref="A10" r:id="rId6" display="http://localhost:3000/punch"/>
-    <hyperlink ref="A11" r:id="rId7" display="http://localhost:3000/punch"/>
-    <hyperlink ref="A12" r:id="rId8" display="http://localhost:3000/leave/user/"/>
-    <hyperlink ref="A16" r:id="rId9" display="http://localhost:3000/punch"/>
-    <hyperlink ref="A3" r:id="rId10" display="http://localhost:3000/userid"/>
-    <hyperlink ref="A13" r:id="rId11" display="http://localhost:3000/leave/user/{rid}"/>
-    <hyperlink ref="A14" r:id="rId12" display="http://localhost:3000/out/user/"/>
-    <hyperlink ref="A15" r:id="rId13" display="http://localhost:3000/out/user/{rid}"/>
-    <hyperlink ref="A17" r:id="rId14" display="http://localhost:3000/leave/{userid}"/>
-    <hyperlink ref="A18" r:id="rId15" display="http://localhost:3000/out/{userid}"/>
-    <hyperlink ref="A19" r:id="rId16" display="http://localhost:3000/punch/{userid}"/>
-    <hyperlink ref="A6" r:id="rId17" display="http://localhost:3000/leave"/>
+    <hyperlink ref="A5" r:id="rId1" display="http://localhost:3000/userid/{userid}"/>
+    <hyperlink ref="A6" r:id="rId2" display="http://localhost:3000/userid/{userid}"/>
+    <hyperlink ref="A8" r:id="rId3" display="http://localhost:3000/leave"/>
+    <hyperlink ref="A9" r:id="rId4" display="http://localhost:3000/out"/>
+    <hyperlink ref="A10" r:id="rId5" display="http://localhost:3000/out"/>
+    <hyperlink ref="A11" r:id="rId6" display="http://localhost:3000/punch"/>
+    <hyperlink ref="A12" r:id="rId7" display="http://localhost:3000/punch"/>
+    <hyperlink ref="A13" r:id="rId8" display="http://localhost:3000/leave/user/"/>
+    <hyperlink ref="A17" r:id="rId9"/>
+    <hyperlink ref="A4" r:id="rId10" display="http://localhost:3000/userid"/>
+    <hyperlink ref="A14" r:id="rId11" display="http://localhost:3000/leave/user/{rid}"/>
+    <hyperlink ref="A15" r:id="rId12" display="http://localhost:3000/out/user/"/>
+    <hyperlink ref="A16" r:id="rId13" display="http://localhost:3000/out/user/{rid}"/>
+    <hyperlink ref="A18" r:id="rId14" display="http://localhost:3000/leave/{userid}"/>
+    <hyperlink ref="A19" r:id="rId15" display="http://localhost:3000/out/{userid}"/>
+    <hyperlink ref="A20" r:id="rId16" display="http://localhost:3000/punch/{userid}"/>
+    <hyperlink ref="A7" r:id="rId17" display="http://localhost:3000/leave"/>
     <hyperlink ref="A2" r:id="rId18"/>
+    <hyperlink ref="A3" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId20"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -990,9 +1099,10 @@
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1">
+    <row r="1" spans="1:4" ht="15.6" thickTop="1" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>30</v>
       </c>
@@ -1002,18 +1112,25 @@
       <c r="C1" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="115.8" thickBot="1">
-      <c r="A2" s="9" t="s">
+      <c r="D1" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="116.4" thickTop="1" thickBot="1">
+      <c r="A2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
+      <c r="D2" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/rest API接口说明.xlsx
+++ b/docs/rest API接口说明.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="60">
   <si>
     <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,6 +250,18 @@
   </si>
   <si>
     <t>http://112.74.164.166:3000/punch/user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://112.74.164.166:3000/judgeLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE 200 / CODE -200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回是否登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -305,7 +317,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -343,6 +355,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -353,7 +391,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -397,6 +435,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -694,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -705,7 +749,7 @@
     <col min="1" max="1" width="47.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="80.77734375" bestFit="1" customWidth="1"/>
   </cols>
@@ -764,67 +808,67 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>53</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="13"/>
+        <v>21</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="6">
-        <v>404</v>
+      <c r="D6" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>4</v>
+      <c r="D7" s="6">
+        <v>404</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F7" s="13"/>
     </row>
@@ -833,30 +877,30 @@
         <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="6">
-        <v>404</v>
+      <c r="D8" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
-        <v>4</v>
+      <c r="D9" s="6">
+        <v>404</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" s="13"/>
     </row>
@@ -865,30 +909,30 @@
         <v>38</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="6">
-        <v>404</v>
+      <c r="D10" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
-        <v>4</v>
+      <c r="D11" s="6">
+        <v>404</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" s="13"/>
     </row>
@@ -897,38 +941,36 @@
         <v>39</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="6">
-        <v>404</v>
+      <c r="D12" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>24</v>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6">
+        <v>404</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>6</v>
@@ -937,34 +979,34 @@
         <v>27</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>6</v>
@@ -976,47 +1018,49 @@
         <v>23</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="7" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="D18" s="6" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>2</v>
@@ -1026,13 +1070,13 @@
         <v>4</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>2</v>
@@ -1042,47 +1086,65 @@
         <v>4</v>
       </c>
       <c r="E20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="4"/>
+      <c r="F21" s="13"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="3"/>
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="F4:F20"/>
+  <mergeCells count="5">
+    <mergeCell ref="F5:F21"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1" display="http://localhost:3000/userid/{userid}"/>
-    <hyperlink ref="A6" r:id="rId2" display="http://localhost:3000/userid/{userid}"/>
-    <hyperlink ref="A8" r:id="rId3" display="http://localhost:3000/leave"/>
-    <hyperlink ref="A9" r:id="rId4" display="http://localhost:3000/out"/>
-    <hyperlink ref="A10" r:id="rId5" display="http://localhost:3000/out"/>
-    <hyperlink ref="A11" r:id="rId6" display="http://localhost:3000/punch"/>
-    <hyperlink ref="A12" r:id="rId7" display="http://localhost:3000/punch"/>
-    <hyperlink ref="A13" r:id="rId8" display="http://localhost:3000/leave/user/"/>
-    <hyperlink ref="A17" r:id="rId9"/>
-    <hyperlink ref="A4" r:id="rId10" display="http://localhost:3000/userid"/>
-    <hyperlink ref="A14" r:id="rId11" display="http://localhost:3000/leave/user/{rid}"/>
-    <hyperlink ref="A15" r:id="rId12" display="http://localhost:3000/out/user/"/>
-    <hyperlink ref="A16" r:id="rId13" display="http://localhost:3000/out/user/{rid}"/>
-    <hyperlink ref="A18" r:id="rId14" display="http://localhost:3000/leave/{userid}"/>
-    <hyperlink ref="A19" r:id="rId15" display="http://localhost:3000/out/{userid}"/>
-    <hyperlink ref="A20" r:id="rId16" display="http://localhost:3000/punch/{userid}"/>
-    <hyperlink ref="A7" r:id="rId17" display="http://localhost:3000/leave"/>
+    <hyperlink ref="A6" r:id="rId1" display="http://localhost:3000/userid/{userid}"/>
+    <hyperlink ref="A7" r:id="rId2" display="http://localhost:3000/userid/{userid}"/>
+    <hyperlink ref="A9" r:id="rId3" display="http://localhost:3000/leave"/>
+    <hyperlink ref="A10" r:id="rId4" display="http://localhost:3000/out"/>
+    <hyperlink ref="A11" r:id="rId5" display="http://localhost:3000/out"/>
+    <hyperlink ref="A12" r:id="rId6" display="http://localhost:3000/punch"/>
+    <hyperlink ref="A13" r:id="rId7" display="http://localhost:3000/punch"/>
+    <hyperlink ref="A14" r:id="rId8" display="http://localhost:3000/leave/user/"/>
+    <hyperlink ref="A18" r:id="rId9"/>
+    <hyperlink ref="A5" r:id="rId10" display="http://localhost:3000/userid"/>
+    <hyperlink ref="A15" r:id="rId11" display="http://localhost:3000/leave/user/{rid}"/>
+    <hyperlink ref="A16" r:id="rId12" display="http://localhost:3000/out/user/"/>
+    <hyperlink ref="A17" r:id="rId13" display="http://localhost:3000/out/user/{rid}"/>
+    <hyperlink ref="A19" r:id="rId14" display="http://localhost:3000/leave/{userid}"/>
+    <hyperlink ref="A20" r:id="rId15" display="http://localhost:3000/out/{userid}"/>
+    <hyperlink ref="A21" r:id="rId16" display="http://localhost:3000/punch/{userid}"/>
+    <hyperlink ref="A8" r:id="rId17" display="http://localhost:3000/leave"/>
     <hyperlink ref="A2" r:id="rId18"/>
     <hyperlink ref="A3" r:id="rId19"/>
+    <hyperlink ref="A4" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId21"/>
 </worksheet>
 </file>
 

--- a/docs/rest API接口说明.xlsx
+++ b/docs/rest API接口说明.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
   <si>
     <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,10 +42,6 @@
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法提交注册信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -264,12 +260,32 @@
     <t>返回是否登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>http://112.74.164.166:3000/leave/del/{rid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://112.74.164.166:3000/out/del/{rid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除第{rid}条外出信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除第{rid}条请假信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅允许修改对应用户的剩余年假信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,14 +316,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -317,7 +325,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -359,23 +367,34 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -391,7 +410,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -404,9 +423,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -428,19 +444,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -741,7 +754,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F5" sqref="F5:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -755,370 +768,395 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5">
+        <v>404</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5">
+        <v>404</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5">
+        <v>404</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="14"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="14"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="E14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="15" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="16"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6">
-        <v>404</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6">
-        <v>404</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6">
-        <v>404</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6">
-        <v>404</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="14"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="F5:F21"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="F5:F23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1142,9 +1180,11 @@
     <hyperlink ref="A2" r:id="rId18"/>
     <hyperlink ref="A3" r:id="rId19"/>
     <hyperlink ref="A4" r:id="rId20"/>
+    <hyperlink ref="A22" r:id="rId21"/>
+    <hyperlink ref="A23" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId23"/>
 </worksheet>
 </file>
 
@@ -1165,31 +1205,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="116.4" thickTop="1" thickBot="1">
+      <c r="A2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="C2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="116.4" thickTop="1" thickBot="1">
-      <c r="A2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" thickTop="1"/>
